--- a/Task2/testcases_task2.xlsx
+++ b/Task2/testcases_task2.xlsx
@@ -34,9 +34,6 @@
     <t>Test Case Step Expected Outcome</t>
   </si>
   <si>
-    <t>Test Cases for query of metaweather</t>
-  </si>
-  <si>
     <t>Location Search</t>
   </si>
   <si>
@@ -1587,6 +1584,9 @@
       </rPr>
       <t>Each time HTTP response should  be successful , response should have all the details and the system should not crash.</t>
     </r>
+  </si>
+  <si>
+    <t>Test Cases for query of metaweather service</t>
   </si>
 </sst>
 </file>
@@ -1758,14 +1758,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1793,9 +1790,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1820,37 +1814,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2149,647 +2158,682 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" s="32" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" customHeight="1">
+      <c r="A5" s="22">
+        <v>123</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="H5" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="60">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="135">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="60">
+      <c r="A10" s="22">
+        <v>345</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="300" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="60">
+      <c r="A14" s="22">
+        <v>456</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="300" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" ht="60">
+      <c r="A21" s="22">
+        <v>789</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="22">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" customHeight="1">
-      <c r="A5" s="21">
-        <v>123</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="H21" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="120">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" ht="60">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" ht="135">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" ht="60">
-      <c r="A10" s="21">
-        <v>345</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10" s="22" t="s">
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="60">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="60">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" ht="30">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" ht="60">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="30">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="75">
+      <c r="A30" s="22">
+        <v>654</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="22">
+        <v>3</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="300" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="60">
-      <c r="A14" s="21">
-        <v>456</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7" t="s">
+    <row r="31" spans="1:8" ht="30">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" ht="75">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" ht="30">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="75">
+      <c r="A35" s="22">
+        <v>321</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="C35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="22">
+        <v>3</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="300" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+    <row r="36" spans="1:8" ht="48" customHeight="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" ht="75">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" ht="30">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" ht="75">
+      <c r="A40" s="22">
+        <v>121</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" ht="60">
-      <c r="A21" s="21">
-        <v>789</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="21">
+      <c r="G40" s="22">
         <v>3</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" ht="60">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" ht="60">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" ht="30">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" ht="60">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" ht="30">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-    </row>
-    <row r="30" spans="1:8" ht="75">
-      <c r="A30" s="21">
-        <v>654</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="21">
-        <v>3</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="75">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="30">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" ht="75">
-      <c r="A35" s="21">
-        <v>321</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="21">
-        <v>3</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="48" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" ht="75">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" ht="30">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" spans="1:8" ht="75">
-      <c r="A40" s="21">
-        <v>121</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="H40" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="21">
-        <v>3</v>
-      </c>
-      <c r="H40" s="22" t="s">
+      <c r="F41" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="45">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="D42" s="17"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="D43" s="17"/>
+      <c r="D43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="G35:G38"/>
     <mergeCell ref="H10:H12"/>
@@ -2806,43 +2850,6 @@
     <mergeCell ref="G14:G19"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="G30:G33"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
